--- a/imagenetの精度一覧.xlsx
+++ b/imagenetの精度一覧.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81908\MyGitHub\kaggle_Cassava\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A9CA34-3D02-42AC-99F3-F6E085724616}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AC5596-AC45-4D5A-9A52-132CDE767DF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1155" windowWidth="16590" windowHeight="15045" xr2:uid="{0A682A03-A4F4-4D92-8E4C-74C17E1D9AAF}"/>
+    <workbookView xWindow="10680" yWindow="480" windowWidth="16590" windowHeight="15045" xr2:uid="{0A682A03-A4F4-4D92-8E4C-74C17E1D9AAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$N$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$N$4</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentManualCount="2"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="194">
   <si>
     <t>MODEL</t>
   </si>
@@ -618,6 +618,17 @@
   </si>
   <si>
     <t>ResNeSt-101 </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://sotabench.com/benchmarks/image-classification-on-imagenet</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>以下はtimmのモデル</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1047,11 +1058,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FB1B04-5F62-4CC7-885D-E2A4F2191818}">
-  <dimension ref="A1:F273"/>
+  <dimension ref="A1:F274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1066,132 +1077,120 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:6" ht="19.5" thickBot="1">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.88300000000000001</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B5" s="3">
-        <v>0.88200000000000001</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3">
-        <v>0.98599999999999999</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
       </c>
       <c r="F5">
-        <v>16.399999999999999</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B6" s="3">
-        <v>0.86799999999999999</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.98099999999999998</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="E6" t="s">
         <v>3</v>
       </c>
       <c r="F6">
-        <v>46.6</v>
+        <v>16.399999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7" s="3">
-        <v>0.86399999999999999</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="3">
-        <v>0.97899999999999998</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
       </c>
       <c r="F7">
-        <v>74.2</v>
+        <v>46.6</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B8" s="3">
-        <v>0.86099999999999999</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>0.97799999999999998</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
       </c>
       <c r="F8">
-        <v>130.80000000000001</v>
+        <v>74.2</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="B9" s="3">
         <v>0.86099999999999999</v>
@@ -1200,53 +1199,53 @@
         <v>3</v>
       </c>
       <c r="D9" s="3">
-        <v>0.97899999999999998</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="E9" t="s">
         <v>3</v>
       </c>
       <c r="F9">
-        <v>18.8</v>
+        <v>130.80000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B10" s="3">
-        <v>0.85899999999999999</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="3">
-        <v>0.97799999999999998</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="E10" t="s">
         <v>3</v>
       </c>
       <c r="F10">
-        <v>35.299999999999997</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="B11" s="3">
-        <v>0.85399999999999998</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="3">
-        <v>0.97299999999999998</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="E11" t="s">
         <v>3</v>
       </c>
       <c r="F11">
-        <v>31.6</v>
+        <v>35.299999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1260,7 +1259,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="3">
-        <v>0.97399999999999998</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="E12" t="s">
         <v>3</v>
@@ -1271,110 +1270,110 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="B13" s="3">
         <v>0.85399999999999998</v>
       </c>
-      <c r="C13" s="3">
-        <v>0.85399999999999998</v>
+      <c r="C13" t="s">
+        <v>3</v>
       </c>
       <c r="D13" s="3">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.97599999999999998</v>
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>30.9</v>
+        <v>31.6</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="B14" s="3">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3</v>
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.85399999999999998</v>
       </c>
       <c r="D14" s="3">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="E14" t="s">
-        <v>3</v>
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.97599999999999998</v>
       </c>
       <c r="F14">
-        <v>249.6</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B15" s="3">
-        <v>0.85099999999999998</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="3">
-        <v>0.97199999999999998</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="E15" t="s">
         <v>3</v>
       </c>
       <c r="F15">
-        <v>46.2</v>
+        <v>249.6</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>169</v>
+        <v>118</v>
       </c>
       <c r="B16" s="3">
         <v>0.85099999999999998</v>
       </c>
-      <c r="C16" s="3">
-        <v>0.85099999999999998</v>
+      <c r="C16" t="s">
+        <v>3</v>
       </c>
       <c r="D16" s="3">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0.97499999999999998</v>
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>58.6</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B17" s="3">
         <v>0.85099999999999998</v>
       </c>
-      <c r="C17" t="s">
-        <v>3</v>
+      <c r="C17" s="3">
+        <v>0.85099999999999998</v>
       </c>
       <c r="D17" s="3">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="E17" t="s">
-        <v>3</v>
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.97499999999999998</v>
       </c>
       <c r="F17">
-        <v>166.4</v>
+        <v>58.6</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B18" s="3">
-        <v>0.85</v>
+        <v>0.85099999999999998</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
@@ -1386,75 +1385,75 @@
         <v>3</v>
       </c>
       <c r="F18">
-        <v>77.900000000000006</v>
+        <v>166.4</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="B19" s="3">
-        <v>0.84899999999999998</v>
+        <v>0.85</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="3">
-        <v>0.97199999999999998</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="E19" t="s">
         <v>3</v>
       </c>
       <c r="F19">
-        <v>46.4</v>
+        <v>77.900000000000006</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B20" s="3">
-        <v>0.84799999999999998</v>
+        <v>0.84899999999999998</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="3">
-        <v>0.97099999999999997</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="E20" t="s">
         <v>3</v>
       </c>
       <c r="F20">
-        <v>74</v>
+        <v>46.4</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="B21" s="3">
-        <v>0.84499999999999997</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="3">
-        <v>0.97</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="E21" t="s">
         <v>3</v>
       </c>
       <c r="F21">
-        <v>63.7</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="B22" s="3">
-        <v>0.84299999999999997</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="C22" t="s">
         <v>3</v>
@@ -1466,55 +1465,55 @@
         <v>3</v>
       </c>
       <c r="F22">
-        <v>130.69999999999999</v>
+        <v>63.7</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="B23" s="3">
-        <v>0.84199999999999997</v>
+        <v>0.84299999999999997</v>
       </c>
       <c r="C23" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="3">
-        <v>0.97199999999999998</v>
+        <v>0.97</v>
       </c>
       <c r="E23" t="s">
         <v>3</v>
       </c>
       <c r="F23">
-        <v>142</v>
+        <v>130.69999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="B24" s="3">
-        <v>0.84099999999999997</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="C24" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="3">
-        <v>0.96899999999999997</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="E24" t="s">
         <v>3</v>
       </c>
       <c r="F24">
-        <v>73.900000000000006</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B25" s="3">
-        <v>0.84</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="C25" t="s">
         <v>3</v>
@@ -1526,15 +1525,15 @@
         <v>3</v>
       </c>
       <c r="F25">
-        <v>398.2</v>
+        <v>73.900000000000006</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="B26" s="3">
-        <v>0.83899999999999997</v>
+        <v>0.84</v>
       </c>
       <c r="C26" t="s">
         <v>3</v>
@@ -1546,72 +1545,72 @@
         <v>3</v>
       </c>
       <c r="F26">
-        <v>134.5</v>
+        <v>398.2</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="B27" s="3">
-        <v>0.83799999999999997</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="3">
-        <v>0.96699999999999997</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="E27" t="s">
         <v>3</v>
       </c>
       <c r="F27">
-        <v>130.5</v>
+        <v>134.5</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="B28" s="3">
-        <v>0.83499999999999996</v>
+        <v>0.83799999999999997</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="3">
-        <v>0.97099999999999997</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="E28" t="s">
         <v>3</v>
       </c>
       <c r="F28">
-        <v>166.2</v>
+        <v>130.5</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="B29" s="3">
-        <v>0.83299999999999996</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="C29" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="3">
-        <v>0.96399999999999997</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="E29" t="s">
         <v>3</v>
       </c>
       <c r="F29">
-        <v>249.3</v>
+        <v>166.2</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>168</v>
+        <v>115</v>
       </c>
       <c r="B30" s="3">
         <v>0.83299999999999996</v>
@@ -1620,41 +1619,41 @@
         <v>3</v>
       </c>
       <c r="D30" s="3">
-        <v>0.96799999999999997</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="E30" t="s">
         <v>3</v>
       </c>
       <c r="F30">
-        <v>141.80000000000001</v>
+        <v>249.3</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="B31" s="3">
-        <v>0.83</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
       </c>
       <c r="D31" s="3">
-        <v>0.96299999999999997</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="E31" t="s">
         <v>3</v>
       </c>
       <c r="F31">
-        <v>248</v>
+        <v>141.80000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="B32" s="3">
-        <v>0.82899999999999996</v>
+        <v>0.83</v>
       </c>
       <c r="C32" t="s">
         <v>3</v>
@@ -1666,135 +1665,135 @@
         <v>3</v>
       </c>
       <c r="F32">
-        <v>317.10000000000002</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>191</v>
       </c>
       <c r="B33" s="3">
-        <v>0.82799999999999996</v>
-      </c>
-      <c r="C33" s="3">
         <v>0.82899999999999996</v>
       </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
       <c r="D33" s="3">
-        <v>0.96</v>
-      </c>
-      <c r="E33" s="3">
-        <v>0.96199999999999997</v>
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="E33" t="s">
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>99.5</v>
+        <v>317.10000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>168</v>
+        <v>49</v>
       </c>
       <c r="B34" s="3">
-        <v>0.82699999999999996</v>
-      </c>
-      <c r="C34" t="s">
-        <v>3</v>
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.82899999999999996</v>
       </c>
       <c r="D34" s="3">
-        <v>0.96599999999999997</v>
-      </c>
-      <c r="E34" t="s">
-        <v>3</v>
+        <v>0.96</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0.96199999999999997</v>
       </c>
       <c r="F34">
-        <v>78.099999999999994</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B35" s="3">
         <v>0.82699999999999996</v>
       </c>
-      <c r="C35" s="3">
-        <v>0.82199999999999995</v>
+      <c r="C35" t="s">
+        <v>3</v>
       </c>
       <c r="D35" s="3">
         <v>0.96599999999999997</v>
       </c>
-      <c r="E35" s="3">
-        <v>0.96399999999999997</v>
+      <c r="E35" t="s">
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>255.1</v>
+        <v>78.099999999999994</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>172</v>
       </c>
       <c r="B36" s="3">
-        <v>0.82599999999999996</v>
-      </c>
-      <c r="C36" t="s">
-        <v>3</v>
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.82199999999999995</v>
       </c>
       <c r="D36" s="3">
-        <v>0.96</v>
-      </c>
-      <c r="E36" t="s">
-        <v>3</v>
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.96399999999999997</v>
       </c>
       <c r="F36">
-        <v>100.2</v>
+        <v>255.1</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="B37" s="3">
-        <v>0.82399999999999995</v>
+        <v>0.82599999999999996</v>
       </c>
       <c r="C37" t="s">
         <v>3</v>
       </c>
       <c r="D37" s="3">
-        <v>0.96199999999999997</v>
+        <v>0.96</v>
       </c>
       <c r="E37" t="s">
         <v>3</v>
       </c>
       <c r="F37">
-        <v>592.4</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B38" s="3">
-        <v>0.82299999999999995</v>
+        <v>0.82399999999999995</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>
       </c>
       <c r="D38" s="3">
-        <v>0.96099999999999997</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="E38" t="s">
         <v>3</v>
       </c>
       <c r="F38">
-        <v>449.4</v>
+        <v>592.4</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B39" s="3">
-        <v>0.82199999999999995</v>
+        <v>0.82299999999999995</v>
       </c>
       <c r="C39" t="s">
         <v>3</v>
@@ -1806,12 +1805,12 @@
         <v>3</v>
       </c>
       <c r="F39">
-        <v>424.5</v>
+        <v>449.4</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="B40" s="3">
         <v>0.82199999999999995</v>
@@ -1820,81 +1819,81 @@
         <v>3</v>
       </c>
       <c r="D40" s="3">
-        <v>0.96199999999999997</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="E40" t="s">
         <v>3</v>
       </c>
       <c r="F40">
-        <v>529.29999999999995</v>
+        <v>424.5</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="B41" s="3">
-        <v>0.82099999999999995</v>
-      </c>
-      <c r="C41" s="3">
-        <v>0.81100000000000005</v>
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
       </c>
       <c r="D41" s="3">
-        <v>0.96</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0.95499999999999996</v>
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="E41" t="s">
+        <v>3</v>
       </c>
       <c r="F41">
-        <v>473.7</v>
+        <v>529.29999999999995</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="B42" s="3">
         <v>0.82099999999999995</v>
       </c>
-      <c r="C42" t="s">
-        <v>3</v>
+      <c r="C42" s="3">
+        <v>0.81100000000000005</v>
       </c>
       <c r="D42" s="3">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="E42" t="s">
-        <v>3</v>
+        <v>0.96</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0.95499999999999996</v>
       </c>
       <c r="F42">
-        <v>259.2</v>
+        <v>473.7</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>171</v>
       </c>
       <c r="B43" s="3">
-        <v>0.82</v>
+        <v>0.82099999999999995</v>
       </c>
       <c r="C43" t="s">
         <v>3</v>
       </c>
       <c r="D43" s="3">
-        <v>0.95899999999999996</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="E43" t="s">
         <v>3</v>
       </c>
       <c r="F43">
-        <v>606.20000000000005</v>
+        <v>259.2</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="B44" s="3">
-        <v>0.81799999999999995</v>
+        <v>0.82</v>
       </c>
       <c r="C44" t="s">
         <v>3</v>
@@ -1906,12 +1905,12 @@
         <v>3</v>
       </c>
       <c r="F44">
-        <v>93.7</v>
+        <v>606.20000000000005</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="B45" s="3">
         <v>0.81799999999999995</v>
@@ -1920,13 +1919,13 @@
         <v>3</v>
       </c>
       <c r="D45" s="3">
-        <v>0.95599999999999996</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="E45" t="s">
         <v>3</v>
       </c>
       <c r="F45">
-        <v>399.5</v>
+        <v>93.7</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1934,24 +1933,24 @@
         <v>114</v>
       </c>
       <c r="B46" s="3">
-        <v>0.81599999999999995</v>
+        <v>0.81799999999999995</v>
       </c>
       <c r="C46" t="s">
         <v>3</v>
       </c>
       <c r="D46" s="3">
-        <v>0.95699999999999996</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="E46" t="s">
         <v>3</v>
       </c>
       <c r="F46">
-        <v>401.6</v>
+        <v>399.5</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="B47" s="3">
         <v>0.81599999999999995</v>
@@ -1960,18 +1959,18 @@
         <v>3</v>
       </c>
       <c r="D47" s="3">
-        <v>0.97199999999999998</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="E47" t="s">
         <v>3</v>
       </c>
       <c r="F47">
-        <v>254.6</v>
+        <v>401.6</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="B48" s="3">
         <v>0.81599999999999995</v>
@@ -1980,21 +1979,21 @@
         <v>3</v>
       </c>
       <c r="D48" s="3">
-        <v>0.95699999999999996</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="E48" t="s">
         <v>3</v>
       </c>
       <c r="F48">
-        <v>636.79999999999995</v>
+        <v>254.6</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="B49" s="3">
-        <v>0.81499999999999995</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="C49" t="s">
         <v>3</v>
@@ -2006,12 +2005,12 @@
         <v>3</v>
       </c>
       <c r="F49">
-        <v>299.39999999999998</v>
+        <v>636.79999999999995</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="B50" s="3">
         <v>0.81499999999999995</v>
@@ -2020,178 +2019,178 @@
         <v>3</v>
       </c>
       <c r="D50" s="3">
-        <v>0.95499999999999996</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="E50" t="s">
         <v>3</v>
       </c>
       <c r="F50">
-        <v>444.3</v>
+        <v>299.39999999999998</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="B51" s="3">
-        <v>0.81399999999999995</v>
-      </c>
-      <c r="C51" s="3">
         <v>0.81499999999999995</v>
       </c>
+      <c r="C51" t="s">
+        <v>3</v>
+      </c>
       <c r="D51" s="3">
-        <v>0.95799999999999996</v>
-      </c>
-      <c r="E51" s="3">
-        <v>0.95799999999999996</v>
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="E51" t="s">
+        <v>3</v>
       </c>
       <c r="F51">
-        <v>101.7</v>
+        <v>444.3</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="B52" s="3">
         <v>0.81399999999999995</v>
       </c>
-      <c r="C52" t="s">
-        <v>3</v>
+      <c r="C52" s="3">
+        <v>0.81499999999999995</v>
       </c>
       <c r="D52" s="3">
-        <v>0.95699999999999996</v>
-      </c>
-      <c r="E52" t="s">
-        <v>3</v>
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0.95799999999999996</v>
       </c>
       <c r="F52">
-        <v>647.4</v>
+        <v>101.7</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="B53" s="3">
-        <v>0.81299999999999994</v>
-      </c>
-      <c r="C53" s="3">
-        <v>0.81</v>
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3</v>
       </c>
       <c r="D53" s="3">
         <v>0.95699999999999996</v>
       </c>
-      <c r="E53" s="3">
-        <v>0.95499999999999996</v>
+      <c r="E53" t="s">
+        <v>3</v>
       </c>
       <c r="F53">
-        <v>212.3</v>
+        <v>647.4</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="B54" s="3">
         <v>0.81299999999999994</v>
       </c>
-      <c r="C54" t="s">
-        <v>3</v>
+      <c r="C54" s="3">
+        <v>0.81</v>
       </c>
       <c r="D54" s="3">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="E54" t="s">
-        <v>3</v>
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0.95499999999999996</v>
       </c>
       <c r="F54">
-        <v>391.3</v>
+        <v>212.3</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="B55" s="3">
         <v>0.81299999999999994</v>
       </c>
-      <c r="C55" s="3">
-        <v>0.82699999999999996</v>
+      <c r="C55" t="s">
+        <v>3</v>
       </c>
       <c r="D55" s="3">
-        <v>0.95499999999999996</v>
-      </c>
-      <c r="E55" s="3">
-        <v>0.96199999999999997</v>
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="E55" t="s">
+        <v>3</v>
       </c>
       <c r="F55">
-        <v>196.9</v>
+        <v>391.3</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="B56" s="3">
-        <v>0.81200000000000006</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="C56" s="3">
-        <v>0.81299999999999994</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="D56" s="3">
-        <v>0.95599999999999996</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="E56" s="3">
-        <v>0.95599999999999996</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="F56">
-        <v>147.1</v>
+        <v>196.9</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>179</v>
+        <v>25</v>
       </c>
       <c r="B57" s="3">
         <v>0.81200000000000006</v>
       </c>
-      <c r="C57" t="s">
-        <v>3</v>
+      <c r="C57" s="3">
+        <v>0.81299999999999994</v>
       </c>
       <c r="D57" s="3">
-        <v>0.95399999999999996</v>
-      </c>
-      <c r="E57" t="s">
-        <v>3</v>
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0.95599999999999996</v>
       </c>
       <c r="F57">
-        <v>196.8</v>
+        <v>147.1</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="B58" s="3">
-        <v>0.81100000000000005</v>
+        <v>0.81200000000000006</v>
       </c>
       <c r="C58" t="s">
         <v>3</v>
       </c>
       <c r="D58" s="3">
-        <v>0.95599999999999996</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="E58" t="s">
         <v>3</v>
       </c>
       <c r="F58">
-        <v>455.9</v>
+        <v>196.8</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B59" s="3">
         <v>0.81100000000000005</v>
@@ -2200,38 +2199,38 @@
         <v>3</v>
       </c>
       <c r="D59" s="3">
-        <v>0.96</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="E59" t="s">
         <v>3</v>
       </c>
       <c r="F59">
-        <v>616.5</v>
+        <v>455.9</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="B60" s="3">
-        <v>0.81</v>
+        <v>0.81100000000000005</v>
       </c>
       <c r="C60" t="s">
         <v>3</v>
       </c>
       <c r="D60" s="3">
-        <v>0.95399999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="E60" t="s">
         <v>3</v>
       </c>
       <c r="F60">
-        <v>532.1</v>
+        <v>616.5</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B61" s="3">
         <v>0.81</v>
@@ -2240,18 +2239,18 @@
         <v>3</v>
       </c>
       <c r="D61" s="3">
-        <v>0.95299999999999996</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="E61" t="s">
         <v>3</v>
       </c>
       <c r="F61">
-        <v>548.29999999999995</v>
+        <v>532.1</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="B62" s="3">
         <v>0.81</v>
@@ -2260,38 +2259,38 @@
         <v>3</v>
       </c>
       <c r="D62" s="3">
-        <v>0.95399999999999996</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="E62" t="s">
         <v>3</v>
       </c>
       <c r="F62">
-        <v>356.9</v>
+        <v>548.29999999999995</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B63" s="3">
-        <v>0.80900000000000005</v>
+        <v>0.81</v>
       </c>
       <c r="C63" t="s">
         <v>3</v>
       </c>
       <c r="D63" s="3">
-        <v>0.95699999999999996</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="E63" t="s">
         <v>3</v>
       </c>
       <c r="F63">
-        <v>388.1</v>
+        <v>356.9</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B64" s="3">
         <v>0.80900000000000005</v>
@@ -2300,18 +2299,18 @@
         <v>3</v>
       </c>
       <c r="D64" s="3">
-        <v>0.95299999999999996</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="E64" t="s">
         <v>3</v>
       </c>
       <c r="F64">
-        <v>364.8</v>
+        <v>388.1</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B65" s="3">
         <v>0.80900000000000005</v>
@@ -2326,52 +2325,52 @@
         <v>3</v>
       </c>
       <c r="F65">
-        <v>232.4</v>
+        <v>364.8</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>181</v>
       </c>
       <c r="B66" s="3">
-        <v>0.80800000000000005</v>
+        <v>0.80900000000000005</v>
       </c>
       <c r="C66" t="s">
         <v>3</v>
       </c>
       <c r="D66" s="3">
-        <v>0.95199999999999996</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="E66" t="s">
         <v>3</v>
       </c>
       <c r="F66">
-        <v>161.80000000000001</v>
+        <v>232.4</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="B67" s="3">
-        <v>0.80600000000000005</v>
+        <v>0.80800000000000005</v>
       </c>
       <c r="C67" t="s">
         <v>3</v>
       </c>
       <c r="D67" s="3">
-        <v>0.95299999999999996</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="E67" t="s">
         <v>3</v>
       </c>
       <c r="F67">
-        <v>565.70000000000005</v>
+        <v>161.80000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B68" s="3">
         <v>0.80600000000000005</v>
@@ -2386,12 +2385,12 @@
         <v>3</v>
       </c>
       <c r="F68">
-        <v>583.20000000000005</v>
+        <v>565.70000000000005</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>173</v>
+        <v>113</v>
       </c>
       <c r="B69" s="3">
         <v>0.80600000000000005</v>
@@ -2400,38 +2399,38 @@
         <v>3</v>
       </c>
       <c r="D69" s="3">
-        <v>0.95</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="E69" t="s">
         <v>3</v>
       </c>
       <c r="F69">
-        <v>245.4</v>
+        <v>583.20000000000005</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="B70" s="3">
-        <v>0.80500000000000005</v>
+        <v>0.80600000000000005</v>
       </c>
       <c r="C70" t="s">
         <v>3</v>
       </c>
       <c r="D70" s="3">
-        <v>0.95199999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="E70" t="s">
         <v>3</v>
       </c>
       <c r="F70">
-        <v>622.6</v>
+        <v>245.4</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="B71" s="3">
         <v>0.80500000000000005</v>
@@ -2440,18 +2439,18 @@
         <v>3</v>
       </c>
       <c r="D71" s="3">
-        <v>0.94899999999999995</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="E71" t="s">
         <v>3</v>
       </c>
       <c r="F71">
-        <v>542.29999999999995</v>
+        <v>622.6</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="B72" s="3">
         <v>0.80500000000000005</v>
@@ -2460,98 +2459,98 @@
         <v>3</v>
       </c>
       <c r="D72" s="3">
-        <v>0.95199999999999996</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="E72" t="s">
         <v>3</v>
       </c>
       <c r="F72">
-        <v>370.5</v>
+        <v>542.29999999999995</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="B73" s="3">
-        <v>0.80400000000000005</v>
-      </c>
-      <c r="C73" s="3">
-        <v>0.79800000000000004</v>
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="C73" t="s">
+        <v>3</v>
       </c>
       <c r="D73" s="3">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="E73" s="3">
-        <v>0.94899999999999995</v>
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="E73" t="s">
+        <v>3</v>
       </c>
       <c r="F73">
-        <v>612.9</v>
+        <v>370.5</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B74" s="3">
         <v>0.80400000000000005</v>
       </c>
-      <c r="C74" t="s">
-        <v>3</v>
+      <c r="C74" s="3">
+        <v>0.79800000000000004</v>
       </c>
       <c r="D74" s="3">
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="E74" t="s">
-        <v>3</v>
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="E74" s="3">
+        <v>0.94899999999999995</v>
       </c>
       <c r="F74">
-        <v>291.60000000000002</v>
+        <v>612.9</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="B75" s="3">
         <v>0.80400000000000005</v>
       </c>
-      <c r="C75" s="3">
-        <v>0.80100000000000005</v>
+      <c r="C75" t="s">
+        <v>3</v>
       </c>
       <c r="D75" s="3">
-        <v>0.95299999999999996</v>
-      </c>
-      <c r="E75" s="3">
-        <v>0.95099999999999996</v>
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="E75" t="s">
+        <v>3</v>
       </c>
       <c r="F75">
-        <v>294.5</v>
+        <v>291.60000000000002</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="B76" s="3">
         <v>0.80400000000000005</v>
       </c>
-      <c r="C76" t="s">
-        <v>3</v>
+      <c r="C76" s="3">
+        <v>0.80100000000000005</v>
       </c>
       <c r="D76" s="3">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="E76" s="3">
         <v>0.95099999999999996</v>
       </c>
-      <c r="E76" t="s">
-        <v>3</v>
-      </c>
       <c r="F76">
-        <v>338.4</v>
+        <v>294.5</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>155</v>
+        <v>62</v>
       </c>
       <c r="B77" s="3">
         <v>0.80400000000000005</v>
@@ -2560,38 +2559,38 @@
         <v>3</v>
       </c>
       <c r="D77" s="3">
-        <v>0.95</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="E77" t="s">
         <v>3</v>
       </c>
       <c r="F77">
-        <v>465</v>
+        <v>338.4</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>23</v>
+        <v>155</v>
       </c>
       <c r="B78" s="3">
-        <v>0.80300000000000005</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="C78" t="s">
         <v>3</v>
       </c>
       <c r="D78" s="3">
-        <v>0.95299999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="E78" t="s">
         <v>3</v>
       </c>
       <c r="F78">
-        <v>408</v>
+        <v>465</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="B79" s="3">
         <v>0.80300000000000005</v>
@@ -2600,18 +2599,18 @@
         <v>3</v>
       </c>
       <c r="D79" s="3">
-        <v>0.95</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="E79" t="s">
         <v>3</v>
       </c>
       <c r="F79">
-        <v>585.70000000000005</v>
+        <v>408</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="B80" s="3">
         <v>0.80300000000000005</v>
@@ -2626,12 +2625,12 @@
         <v>3</v>
       </c>
       <c r="F80">
-        <v>154.30000000000001</v>
+        <v>585.70000000000005</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B81" s="3">
         <v>0.80300000000000005</v>
@@ -2646,12 +2645,12 @@
         <v>3</v>
       </c>
       <c r="F81">
-        <v>275.89999999999998</v>
+        <v>154.30000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>156</v>
+        <v>63</v>
       </c>
       <c r="B82" s="3">
         <v>0.80300000000000005</v>
@@ -2660,18 +2659,18 @@
         <v>3</v>
       </c>
       <c r="D82" s="3">
-        <v>0.95199999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="E82" t="s">
         <v>3</v>
       </c>
       <c r="F82">
-        <v>439.5</v>
+        <v>275.89999999999998</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B83" s="3">
         <v>0.80300000000000005</v>
@@ -2680,18 +2679,18 @@
         <v>3</v>
       </c>
       <c r="D83" s="3">
-        <v>0.95599999999999996</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="E83" t="s">
         <v>3</v>
       </c>
       <c r="F83">
-        <v>476.5</v>
+        <v>439.5</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B84" s="3">
         <v>0.80300000000000005</v>
@@ -2700,18 +2699,18 @@
         <v>3</v>
       </c>
       <c r="D84" s="3">
-        <v>0.94899999999999995</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="E84" t="s">
         <v>3</v>
       </c>
       <c r="F84">
-        <v>384.5</v>
+        <v>476.5</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c r="B85" s="3">
         <v>0.80300000000000005</v>
@@ -2720,38 +2719,38 @@
         <v>3</v>
       </c>
       <c r="D85" s="3">
-        <v>0.95199999999999996</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="E85" t="s">
         <v>3</v>
       </c>
       <c r="F85">
-        <v>705.1</v>
+        <v>384.5</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="B86" s="3">
-        <v>0.80200000000000005</v>
+        <v>0.80300000000000005</v>
       </c>
       <c r="C86" t="s">
         <v>3</v>
       </c>
       <c r="D86" s="3">
-        <v>0.94899999999999995</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="E86" t="s">
         <v>3</v>
       </c>
       <c r="F86">
-        <v>198.4</v>
+        <v>705.1</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="B87" s="3">
         <v>0.80200000000000005</v>
@@ -2760,38 +2759,38 @@
         <v>3</v>
       </c>
       <c r="D87" s="3">
-        <v>0.95</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="E87" t="s">
         <v>3</v>
       </c>
       <c r="F87">
-        <v>352.6</v>
+        <v>198.4</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B88" s="3">
-        <v>0.80100000000000005</v>
+        <v>0.80200000000000005</v>
       </c>
       <c r="C88" t="s">
         <v>3</v>
       </c>
       <c r="D88" s="3">
-        <v>0.94899999999999995</v>
+        <v>0.95</v>
       </c>
       <c r="E88" t="s">
         <v>3</v>
       </c>
       <c r="F88">
-        <v>587.9</v>
+        <v>352.6</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="B89" s="3">
         <v>0.80100000000000005</v>
@@ -2800,18 +2799,18 @@
         <v>3</v>
       </c>
       <c r="D89" s="3">
-        <v>0.95</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="E89" t="s">
         <v>3</v>
       </c>
       <c r="F89">
-        <v>352.3</v>
+        <v>587.9</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c r="B90" s="3">
         <v>0.80100000000000005</v>
@@ -2820,18 +2819,18 @@
         <v>3</v>
       </c>
       <c r="D90" s="3">
-        <v>0.95299999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="E90" t="s">
         <v>3</v>
       </c>
       <c r="F90">
-        <v>475.7</v>
+        <v>352.3</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c r="B91" s="3">
         <v>0.80100000000000005</v>
@@ -2840,38 +2839,38 @@
         <v>3</v>
       </c>
       <c r="D91" s="3">
-        <v>0.94599999999999995</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="E91" t="s">
         <v>3</v>
       </c>
       <c r="F91">
-        <v>434.6</v>
+        <v>475.7</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="B92" s="3">
-        <v>0.8</v>
+        <v>0.80100000000000005</v>
       </c>
       <c r="C92" t="s">
         <v>3</v>
       </c>
       <c r="D92" s="3">
-        <v>0.95099999999999996</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="E92" t="s">
         <v>3</v>
       </c>
       <c r="F92">
-        <v>477.3</v>
+        <v>434.6</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B93" s="3">
         <v>0.8</v>
@@ -2880,78 +2879,78 @@
         <v>3</v>
       </c>
       <c r="D93" s="3">
-        <v>0.94899999999999995</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="E93" t="s">
         <v>3</v>
       </c>
       <c r="F93">
-        <v>590.4</v>
+        <v>477.3</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B94" s="3">
         <v>0.8</v>
       </c>
-      <c r="C94" s="3">
-        <v>0.79300000000000004</v>
+      <c r="C94" t="s">
+        <v>3</v>
       </c>
       <c r="D94" s="3">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0.94599999999999995</v>
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="E94" t="s">
+        <v>3</v>
       </c>
       <c r="F94">
-        <v>387.7</v>
+        <v>590.4</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="B95" s="3">
         <v>0.8</v>
       </c>
-      <c r="C95" t="s">
-        <v>3</v>
+      <c r="C95" s="3">
+        <v>0.79300000000000004</v>
       </c>
       <c r="D95" s="3">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="E95" t="s">
-        <v>3</v>
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="E95" s="3">
+        <v>0.94599999999999995</v>
       </c>
       <c r="F95">
-        <v>293.5</v>
+        <v>387.7</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="B96" s="3">
-        <v>0.79900000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="C96" t="s">
         <v>3</v>
       </c>
       <c r="D96" s="3">
-        <v>0.94799999999999995</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="E96" t="s">
         <v>3</v>
       </c>
       <c r="F96">
-        <v>418.2</v>
+        <v>293.5</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="B97" s="3">
         <v>0.79900000000000004</v>
@@ -2966,12 +2965,12 @@
         <v>3</v>
       </c>
       <c r="F97">
-        <v>366.9</v>
+        <v>418.2</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="B98" s="3">
         <v>0.79900000000000004</v>
@@ -2986,52 +2985,52 @@
         <v>3</v>
       </c>
       <c r="F98">
-        <v>499.1</v>
+        <v>366.9</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>21</v>
+        <v>186</v>
       </c>
       <c r="B99" s="3">
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="C99" s="3">
-        <v>0.80100000000000005</v>
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="C99" t="s">
+        <v>3</v>
       </c>
       <c r="D99" s="3">
-        <v>0.94699999999999995</v>
-      </c>
-      <c r="E99" s="3">
-        <v>0.94899999999999995</v>
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="E99" t="s">
+        <v>3</v>
       </c>
       <c r="F99">
-        <v>216.6</v>
+        <v>499.1</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="B100" s="3">
         <v>0.79800000000000004</v>
       </c>
-      <c r="C100" t="s">
-        <v>3</v>
+      <c r="C100" s="3">
+        <v>0.80100000000000005</v>
       </c>
       <c r="D100" s="3">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="E100" s="3">
         <v>0.94899999999999995</v>
       </c>
-      <c r="E100" t="s">
-        <v>3</v>
-      </c>
       <c r="F100">
-        <v>467</v>
+        <v>216.6</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="B101" s="3">
         <v>0.79800000000000004</v>
@@ -3040,78 +3039,78 @@
         <v>3</v>
       </c>
       <c r="D101" s="3">
-        <v>0.94799999999999995</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="E101" t="s">
         <v>3</v>
       </c>
       <c r="F101">
-        <v>300.89999999999998</v>
+        <v>467</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B102" s="3">
-        <v>0.79700000000000004</v>
-      </c>
-      <c r="C102" s="3">
-        <v>0.8</v>
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="C102" t="s">
+        <v>3</v>
       </c>
       <c r="D102" s="3">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="E102" s="3">
         <v>0.94799999999999995</v>
       </c>
+      <c r="E102" t="s">
+        <v>3</v>
+      </c>
       <c r="F102">
-        <v>278.7</v>
+        <v>300.89999999999998</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>145</v>
+        <v>25</v>
       </c>
       <c r="B103" s="3">
         <v>0.79700000000000004</v>
       </c>
       <c r="C103" s="3">
-        <v>0.79800000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="D103" s="3">
-        <v>0.94899999999999995</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="E103" s="3">
         <v>0.94799999999999995</v>
       </c>
       <c r="F103">
-        <v>226</v>
+        <v>278.7</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="B104" s="3">
         <v>0.79700000000000004</v>
       </c>
-      <c r="C104" t="s">
-        <v>3</v>
+      <c r="C104" s="3">
+        <v>0.79800000000000004</v>
       </c>
       <c r="D104" s="3">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="E104" s="3">
         <v>0.94799999999999995</v>
       </c>
-      <c r="E104" t="s">
-        <v>3</v>
-      </c>
       <c r="F104">
-        <v>458.6</v>
+        <v>226</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="B105" s="3">
         <v>0.79700000000000004</v>
@@ -3120,18 +3119,18 @@
         <v>3</v>
       </c>
       <c r="D105" s="3">
-        <v>0.94699999999999995</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="E105" t="s">
         <v>3</v>
       </c>
       <c r="F105">
-        <v>376.1</v>
+        <v>458.6</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="B106" s="3">
         <v>0.79700000000000004</v>
@@ -3140,38 +3139,38 @@
         <v>3</v>
       </c>
       <c r="D106" s="3">
-        <v>0.94899999999999995</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="E106" t="s">
         <v>3</v>
       </c>
       <c r="F106">
-        <v>523.5</v>
+        <v>376.1</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>5</v>
+        <v>175</v>
       </c>
       <c r="B107" s="3">
-        <v>0.79600000000000004</v>
+        <v>0.79700000000000004</v>
       </c>
       <c r="C107" t="s">
         <v>3</v>
       </c>
       <c r="D107" s="3">
-        <v>0.94699999999999995</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="E107" t="s">
         <v>3</v>
       </c>
       <c r="F107">
-        <v>589.9</v>
+        <v>523.5</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="B108" s="3">
         <v>0.79600000000000004</v>
@@ -3186,15 +3185,15 @@
         <v>3</v>
       </c>
       <c r="F108">
-        <v>349.1</v>
+        <v>589.9</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B109" s="3">
-        <v>0.79500000000000004</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="C109" t="s">
         <v>3</v>
@@ -3206,12 +3205,12 @@
         <v>3</v>
       </c>
       <c r="F109">
-        <v>239.8</v>
+        <v>349.1</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>154</v>
+        <v>42</v>
       </c>
       <c r="B110" s="3">
         <v>0.79500000000000004</v>
@@ -3220,18 +3219,18 @@
         <v>3</v>
       </c>
       <c r="D110" s="3">
-        <v>0.94599999999999995</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="E110" t="s">
         <v>3</v>
       </c>
       <c r="F110">
-        <v>447.2</v>
+        <v>239.8</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="B111" s="3">
         <v>0.79500000000000004</v>
@@ -3240,38 +3239,38 @@
         <v>3</v>
       </c>
       <c r="D111" s="3">
-        <v>0.94699999999999995</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="E111" t="s">
         <v>3</v>
       </c>
       <c r="F111">
-        <v>717.7</v>
+        <v>447.2</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="B112" s="3">
-        <v>0.79400000000000004</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="C112" t="s">
         <v>3</v>
       </c>
       <c r="D112" s="3">
-        <v>0.94599999999999995</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="E112" t="s">
         <v>3</v>
       </c>
       <c r="F112">
-        <v>304.3</v>
+        <v>717.7</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="B113" s="3">
         <v>0.79400000000000004</v>
@@ -3286,32 +3285,32 @@
         <v>3</v>
       </c>
       <c r="F113">
-        <v>532.70000000000005</v>
+        <v>304.3</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>112</v>
+        <v>174</v>
       </c>
       <c r="B114" s="3">
-        <v>0.79300000000000004</v>
+        <v>0.79400000000000004</v>
       </c>
       <c r="C114" t="s">
         <v>3</v>
       </c>
       <c r="D114" s="3">
-        <v>0.94299999999999995</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="E114" t="s">
         <v>3</v>
       </c>
       <c r="F114">
-        <v>648.9</v>
+        <v>532.70000000000005</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B115" s="3">
         <v>0.79300000000000004</v>
@@ -3320,18 +3319,18 @@
         <v>3</v>
       </c>
       <c r="D115" s="3">
-        <v>0.94399999999999995</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="E115" t="s">
         <v>3</v>
       </c>
       <c r="F115">
-        <v>528.4</v>
+        <v>648.9</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B116" s="3">
         <v>0.79300000000000004</v>
@@ -3340,18 +3339,18 @@
         <v>3</v>
       </c>
       <c r="D116" s="3">
-        <v>0.94299999999999995</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="E116" t="s">
         <v>3</v>
       </c>
       <c r="F116">
-        <v>537.79999999999995</v>
+        <v>528.4</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="B117" s="3">
         <v>0.79300000000000004</v>
@@ -3360,18 +3359,18 @@
         <v>3</v>
       </c>
       <c r="D117" s="3">
-        <v>0.94499999999999995</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="E117" t="s">
         <v>3</v>
       </c>
       <c r="F117">
-        <v>278.3</v>
+        <v>537.79999999999995</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="B118" s="3">
         <v>0.79300000000000004</v>
@@ -3386,12 +3385,12 @@
         <v>3</v>
       </c>
       <c r="F118">
-        <v>469.9</v>
+        <v>278.3</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c r="B119" s="3">
         <v>0.79300000000000004</v>
@@ -3400,18 +3399,18 @@
         <v>3</v>
       </c>
       <c r="D119" s="3">
-        <v>0.94599999999999995</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="E119" t="s">
         <v>3</v>
       </c>
       <c r="F119">
-        <v>590.1</v>
+        <v>469.9</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B120" s="3">
         <v>0.79300000000000004</v>
@@ -3420,38 +3419,38 @@
         <v>3</v>
       </c>
       <c r="D120" s="3">
-        <v>0.94699999999999995</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="E120" t="s">
         <v>3</v>
       </c>
       <c r="F120">
-        <v>596.29999999999995</v>
+        <v>590.1</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="B121" s="3">
-        <v>0.79200000000000004</v>
+        <v>0.79300000000000004</v>
       </c>
       <c r="C121" t="s">
         <v>3</v>
       </c>
       <c r="D121" s="3">
-        <v>0.94399999999999995</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="E121" t="s">
         <v>3</v>
       </c>
       <c r="F121">
-        <v>606.5</v>
+        <v>596.29999999999995</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="B122" s="3">
         <v>0.79200000000000004</v>
@@ -3460,18 +3459,18 @@
         <v>3</v>
       </c>
       <c r="D122" s="3">
-        <v>0.94599999999999995</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="E122" t="s">
         <v>3</v>
       </c>
       <c r="F122">
-        <v>458.7</v>
+        <v>606.5</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B123" s="3">
         <v>0.79200000000000004</v>
@@ -3486,12 +3485,12 @@
         <v>3</v>
       </c>
       <c r="F123">
-        <v>595.70000000000005</v>
+        <v>458.7</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B124" s="3">
         <v>0.79200000000000004</v>
@@ -3500,18 +3499,18 @@
         <v>3</v>
       </c>
       <c r="D124" s="3">
-        <v>0.94399999999999995</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="E124" t="s">
         <v>3</v>
       </c>
       <c r="F124">
-        <v>403.4</v>
+        <v>595.70000000000005</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B125" s="3">
         <v>0.79200000000000004</v>
@@ -3526,112 +3525,112 @@
         <v>3</v>
       </c>
       <c r="F125">
-        <v>404.5</v>
+        <v>403.4</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="B126" s="3">
-        <v>0.79100000000000004</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="C126" t="s">
         <v>3</v>
       </c>
       <c r="D126" s="3">
-        <v>0.94499999999999995</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="E126" t="s">
         <v>3</v>
       </c>
       <c r="F126">
-        <v>468.5</v>
+        <v>404.5</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>166</v>
+        <v>59</v>
       </c>
       <c r="B127" s="3">
         <v>0.79100000000000004</v>
       </c>
-      <c r="C127" s="3">
-        <v>0.77200000000000002</v>
+      <c r="C127" t="s">
+        <v>3</v>
       </c>
       <c r="D127" s="3">
         <v>0.94499999999999995</v>
       </c>
-      <c r="E127" s="3">
-        <v>0.93500000000000005</v>
+      <c r="E127" t="s">
+        <v>3</v>
       </c>
       <c r="F127">
-        <v>596.79999999999995</v>
+        <v>468.5</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="B128" s="3">
         <v>0.79100000000000004</v>
       </c>
-      <c r="C128" t="s">
-        <v>3</v>
+      <c r="C128" s="3">
+        <v>0.77200000000000002</v>
       </c>
       <c r="D128" s="3">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="E128" t="s">
-        <v>3</v>
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="E128" s="3">
+        <v>0.93500000000000005</v>
       </c>
       <c r="F128">
-        <v>519</v>
+        <v>596.79999999999995</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B129" s="3">
-        <v>0.79</v>
-      </c>
-      <c r="C129" s="3">
-        <v>0.79</v>
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="C129" t="s">
+        <v>3</v>
       </c>
       <c r="D129" s="3">
         <v>0.94399999999999995</v>
       </c>
-      <c r="E129" s="3">
-        <v>0.94499999999999995</v>
+      <c r="E129" t="s">
+        <v>3</v>
       </c>
       <c r="F129">
-        <v>335.6</v>
+        <v>519</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="B130" s="3">
-        <v>0.78900000000000003</v>
-      </c>
-      <c r="C130" t="s">
-        <v>3</v>
+        <v>0.79</v>
+      </c>
+      <c r="C130" s="3">
+        <v>0.79</v>
       </c>
       <c r="D130" s="3">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="E130" s="3">
         <v>0.94499999999999995</v>
       </c>
-      <c r="E130" t="s">
-        <v>3</v>
-      </c>
       <c r="F130">
-        <v>309.89999999999998</v>
+        <v>335.6</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B131" s="3">
         <v>0.78900000000000003</v>
@@ -3640,98 +3639,98 @@
         <v>3</v>
       </c>
       <c r="D131" s="3">
-        <v>0.94399999999999995</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="E131" t="s">
         <v>3</v>
       </c>
       <c r="F131">
-        <v>295.39999999999998</v>
+        <v>309.89999999999998</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="B132" s="3">
-        <v>0.78800000000000003</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="C132" t="s">
         <v>3</v>
       </c>
       <c r="D132" s="3">
-        <v>0.94199999999999995</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="E132" t="s">
         <v>3</v>
       </c>
       <c r="F132">
-        <v>650</v>
+        <v>295.39999999999998</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="B133" s="3">
         <v>0.78800000000000003</v>
       </c>
-      <c r="C133" s="3">
-        <v>0.78800000000000003</v>
+      <c r="C133" t="s">
+        <v>3</v>
       </c>
       <c r="D133" s="3">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="E133" s="3">
-        <v>0.94399999999999995</v>
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="E133" t="s">
+        <v>3</v>
       </c>
       <c r="F133">
-        <v>540.79999999999995</v>
+        <v>650</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B134" s="3">
         <v>0.78800000000000003</v>
       </c>
       <c r="C134" s="3">
-        <v>0.78900000000000003</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="D134" s="3">
-        <v>0.94199999999999995</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="E134" s="3">
-        <v>0.94199999999999995</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="F134">
-        <v>651.6</v>
+        <v>540.79999999999995</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="B135" s="3">
-        <v>0.78700000000000003</v>
-      </c>
-      <c r="C135" t="s">
-        <v>3</v>
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="C135" s="3">
+        <v>0.78900000000000003</v>
       </c>
       <c r="D135" s="3">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="E135" t="s">
-        <v>3</v>
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="E135" s="3">
+        <v>0.94199999999999995</v>
       </c>
       <c r="F135">
-        <v>360.4</v>
+        <v>651.6</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="B136" s="3">
         <v>0.78700000000000003</v>
@@ -3740,58 +3739,58 @@
         <v>3</v>
       </c>
       <c r="D136" s="3">
-        <v>0.94399999999999995</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="E136" t="s">
         <v>3</v>
       </c>
       <c r="F136">
-        <v>639</v>
+        <v>360.4</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="B137" s="3">
         <v>0.78700000000000003</v>
       </c>
-      <c r="C137" s="3">
-        <v>0.78800000000000003</v>
+      <c r="C137" t="s">
+        <v>3</v>
       </c>
       <c r="D137" s="3">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="E137" s="3">
         <v>0.94399999999999995</v>
       </c>
+      <c r="E137" t="s">
+        <v>3</v>
+      </c>
       <c r="F137">
-        <v>675.9</v>
+        <v>639</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>167</v>
+        <v>30</v>
       </c>
       <c r="B138" s="3">
         <v>0.78700000000000003</v>
       </c>
-      <c r="C138" t="s">
-        <v>3</v>
+      <c r="C138" s="3">
+        <v>0.78800000000000003</v>
       </c>
       <c r="D138" s="3">
         <v>0.94199999999999995</v>
       </c>
-      <c r="E138" t="s">
-        <v>3</v>
+      <c r="E138" s="3">
+        <v>0.94399999999999995</v>
       </c>
       <c r="F138">
-        <v>563.79999999999995</v>
+        <v>675.9</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>91</v>
+        <v>167</v>
       </c>
       <c r="B139" s="3">
         <v>0.78700000000000003</v>
@@ -3800,158 +3799,158 @@
         <v>3</v>
       </c>
       <c r="D139" s="3">
-        <v>0.94399999999999995</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="E139" t="s">
         <v>3</v>
       </c>
       <c r="F139">
-        <v>356.8</v>
+        <v>563.79999999999995</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B140" s="3">
-        <v>0.78600000000000003</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="C140" t="s">
         <v>3</v>
       </c>
       <c r="D140" s="3">
-        <v>0.94099999999999995</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="E140" t="s">
         <v>3</v>
       </c>
       <c r="F140">
-        <v>466.2</v>
+        <v>356.8</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="B141" s="3">
-        <v>0.78500000000000003</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="C141" t="s">
         <v>3</v>
       </c>
       <c r="D141" s="3">
-        <v>0.94199999999999995</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="E141" t="s">
         <v>3</v>
       </c>
       <c r="F141">
-        <v>421.2</v>
+        <v>466.2</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B142" s="3">
         <v>0.78500000000000003</v>
       </c>
-      <c r="C142" s="3">
-        <v>0.78500000000000003</v>
+      <c r="C142" t="s">
+        <v>3</v>
       </c>
       <c r="D142" s="3">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="E142" s="3">
-        <v>0.94499999999999995</v>
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="E142" t="s">
+        <v>3</v>
       </c>
       <c r="F142">
-        <v>400.7</v>
+        <v>421.2</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B143" s="3">
         <v>0.78500000000000003</v>
       </c>
-      <c r="C143" t="s">
-        <v>3</v>
+      <c r="C143" s="3">
+        <v>0.78500000000000003</v>
       </c>
       <c r="D143" s="3">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="E143" t="s">
-        <v>3</v>
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="E143" s="3">
+        <v>0.94499999999999995</v>
       </c>
       <c r="F143">
-        <v>566.5</v>
+        <v>400.7</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B144" s="3">
         <v>0.78500000000000003</v>
       </c>
-      <c r="C144" s="3">
-        <v>0.79500000000000004</v>
+      <c r="C144" t="s">
+        <v>3</v>
       </c>
       <c r="D144" s="3">
-        <v>0.94199999999999995</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="E144" t="s">
         <v>3</v>
       </c>
       <c r="F144">
-        <v>544</v>
+        <v>566.5</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="B145" s="3">
         <v>0.78500000000000003</v>
       </c>
-      <c r="C145" t="s">
-        <v>3</v>
+      <c r="C145" s="3">
+        <v>0.79500000000000004</v>
       </c>
       <c r="D145" s="3">
-        <v>0.94299999999999995</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="E145" t="s">
         <v>3</v>
       </c>
       <c r="F145">
-        <v>646.29999999999995</v>
+        <v>544</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="B146" s="3">
-        <v>0.78400000000000003</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="C146" t="s">
         <v>3</v>
       </c>
       <c r="D146" s="3">
-        <v>0.94199999999999995</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="E146" t="s">
         <v>3</v>
       </c>
       <c r="F146">
-        <v>404.2</v>
+        <v>646.29999999999995</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="B147" s="3">
         <v>0.78400000000000003</v>
@@ -3966,12 +3965,12 @@
         <v>3</v>
       </c>
       <c r="F147">
-        <v>533.1</v>
+        <v>404.2</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>178</v>
+        <v>82</v>
       </c>
       <c r="B148" s="3">
         <v>0.78400000000000003</v>
@@ -3986,12 +3985,12 @@
         <v>3</v>
       </c>
       <c r="F148">
-        <v>705.2</v>
+        <v>533.1</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="B149" s="3">
         <v>0.78400000000000003</v>
@@ -4000,38 +3999,38 @@
         <v>3</v>
       </c>
       <c r="D149" s="3">
-        <v>0.94299999999999995</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="E149" t="s">
         <v>3</v>
       </c>
       <c r="F149">
-        <v>463.7</v>
+        <v>705.2</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="B150" s="3">
-        <v>0.78200000000000003</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="C150" t="s">
         <v>3</v>
       </c>
       <c r="D150" s="3">
-        <v>0.94</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="E150" t="s">
         <v>3</v>
       </c>
       <c r="F150">
-        <v>548.29999999999995</v>
+        <v>463.7</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B151" s="3">
         <v>0.78200000000000003</v>
@@ -4040,18 +4039,18 @@
         <v>3</v>
       </c>
       <c r="D151" s="3">
-        <v>0.94199999999999995</v>
+        <v>0.94</v>
       </c>
       <c r="E151" t="s">
         <v>3</v>
       </c>
       <c r="F151">
-        <v>415.2</v>
+        <v>548.29999999999995</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="B152" s="3">
         <v>0.78200000000000003</v>
@@ -4060,21 +4059,21 @@
         <v>3</v>
       </c>
       <c r="D152" s="3">
-        <v>0.93899999999999995</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="E152" t="s">
         <v>3</v>
       </c>
       <c r="F152">
-        <v>528.9</v>
+        <v>415.2</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="B153" s="3">
-        <v>0.78100000000000003</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="C153" t="s">
         <v>3</v>
@@ -4086,12 +4085,12 @@
         <v>3</v>
       </c>
       <c r="F153">
-        <v>669.6</v>
+        <v>528.9</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="B154" s="3">
         <v>0.78100000000000003</v>
@@ -4100,18 +4099,18 @@
         <v>3</v>
       </c>
       <c r="D154" s="3">
-        <v>0.94099999999999995</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="E154" t="s">
         <v>3</v>
       </c>
       <c r="F154">
-        <v>631.1</v>
+        <v>669.6</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B155" s="3">
         <v>0.78100000000000003</v>
@@ -4120,38 +4119,38 @@
         <v>3</v>
       </c>
       <c r="D155" s="3">
-        <v>0.93899999999999995</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="E155" t="s">
         <v>3</v>
       </c>
       <c r="F155">
-        <v>545.5</v>
+        <v>631.1</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="B156" s="3">
-        <v>0.78</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="C156" t="s">
         <v>3</v>
       </c>
       <c r="D156" s="3">
-        <v>0.94</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="E156" t="s">
         <v>3</v>
       </c>
       <c r="F156">
-        <v>481.7</v>
+        <v>545.5</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="B157" s="3">
         <v>0.78</v>
@@ -4160,18 +4159,18 @@
         <v>3</v>
       </c>
       <c r="D157" s="3">
-        <v>0.93899999999999995</v>
+        <v>0.94</v>
       </c>
       <c r="E157" t="s">
         <v>3</v>
       </c>
       <c r="F157">
-        <v>556</v>
+        <v>481.7</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="B158" s="3">
         <v>0.78</v>
@@ -4180,18 +4179,18 @@
         <v>3</v>
       </c>
       <c r="D158" s="3">
-        <v>0.94</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="E158" t="s">
         <v>3</v>
       </c>
       <c r="F158">
-        <v>604.70000000000005</v>
+        <v>556</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B159" s="3">
         <v>0.78</v>
@@ -4200,18 +4199,18 @@
         <v>3</v>
       </c>
       <c r="D159" s="3">
-        <v>0.93799999999999994</v>
+        <v>0.94</v>
       </c>
       <c r="E159" t="s">
         <v>3</v>
       </c>
       <c r="F159">
-        <v>694.3</v>
+        <v>604.70000000000005</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B160" s="3">
         <v>0.78</v>
@@ -4220,18 +4219,18 @@
         <v>3</v>
       </c>
       <c r="D160" s="3">
-        <v>0.93700000000000006</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="E160" t="s">
         <v>3</v>
       </c>
       <c r="F160">
-        <v>589.9</v>
+        <v>694.3</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B161" s="3">
         <v>0.78</v>
@@ -4246,15 +4245,15 @@
         <v>3</v>
       </c>
       <c r="F161">
-        <v>598.4</v>
+        <v>589.9</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>121</v>
+        <v>185</v>
       </c>
       <c r="B162" s="3">
-        <v>0.77900000000000003</v>
+        <v>0.78</v>
       </c>
       <c r="C162" t="s">
         <v>3</v>
@@ -4266,12 +4265,12 @@
         <v>3</v>
       </c>
       <c r="F162">
-        <v>672.2</v>
+        <v>598.4</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="B163" s="3">
         <v>0.77900000000000003</v>
@@ -4286,12 +4285,12 @@
         <v>3</v>
       </c>
       <c r="F163">
-        <v>707.8</v>
+        <v>672.2</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B164" s="3">
         <v>0.77900000000000003</v>
@@ -4300,58 +4299,58 @@
         <v>3</v>
       </c>
       <c r="D164" s="3">
-        <v>0.93899999999999995</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="E164" t="s">
         <v>3</v>
       </c>
       <c r="F164">
-        <v>718.6</v>
+        <v>707.8</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="B165" s="3">
-        <v>0.77700000000000002</v>
-      </c>
-      <c r="C165" s="3">
-        <v>0.76300000000000001</v>
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="C165" t="s">
+        <v>3</v>
       </c>
       <c r="D165" s="3">
-        <v>0.93500000000000005</v>
-      </c>
-      <c r="E165" s="3">
-        <v>0.93200000000000005</v>
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="E165" t="s">
+        <v>3</v>
       </c>
       <c r="F165">
-        <v>705.3</v>
+        <v>718.6</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="B166" s="3">
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="C166" t="s">
-        <v>3</v>
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="C166" s="3">
+        <v>0.76300000000000001</v>
       </c>
       <c r="D166" s="3">
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="E166" t="s">
-        <v>3</v>
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="E166" s="3">
+        <v>0.93200000000000005</v>
       </c>
       <c r="F166">
-        <v>541</v>
+        <v>705.3</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="B167" s="3">
         <v>0.77600000000000002</v>
@@ -4366,12 +4365,12 @@
         <v>3</v>
       </c>
       <c r="F167">
-        <v>618.9</v>
+        <v>541</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c r="B168" s="3">
         <v>0.77600000000000002</v>
@@ -4386,12 +4385,12 @@
         <v>3</v>
       </c>
       <c r="F168">
-        <v>620</v>
+        <v>618.9</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" t="s">
-        <v>183</v>
+        <v>94</v>
       </c>
       <c r="B169" s="3">
         <v>0.77600000000000002</v>
@@ -4400,38 +4399,38 @@
         <v>3</v>
       </c>
       <c r="D169" s="3">
-        <v>0.93600000000000005</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="E169" t="s">
         <v>3</v>
       </c>
       <c r="F169">
-        <v>564.6</v>
+        <v>620</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="B170" s="3">
-        <v>0.77500000000000002</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="C170" t="s">
         <v>3</v>
       </c>
       <c r="D170" s="3">
-        <v>0.93700000000000006</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="E170" t="s">
         <v>3</v>
       </c>
       <c r="F170">
-        <v>657.1</v>
+        <v>564.6</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="B171" s="3">
         <v>0.77500000000000002</v>
@@ -4440,98 +4439,98 @@
         <v>3</v>
       </c>
       <c r="D171" s="3">
-        <v>0.93600000000000005</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="E171" t="s">
         <v>3</v>
       </c>
       <c r="F171">
-        <v>579.29999999999995</v>
+        <v>657.1</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="B172" s="3">
-        <v>0.77300000000000002</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="C172" t="s">
         <v>3</v>
       </c>
       <c r="D172" s="3">
-        <v>0.93300000000000005</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="E172" t="s">
         <v>3</v>
       </c>
       <c r="F172">
-        <v>657.3</v>
+        <v>579.29999999999995</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="B173" s="3">
         <v>0.77300000000000002</v>
       </c>
-      <c r="C173" s="3">
-        <v>0.77</v>
+      <c r="C173" t="s">
+        <v>3</v>
       </c>
       <c r="D173" s="3">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="E173" s="3">
         <v>0.93300000000000005</v>
       </c>
+      <c r="E173" t="s">
+        <v>3</v>
+      </c>
       <c r="F173">
-        <v>698.8</v>
+        <v>657.3</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="B174" s="3">
-        <v>0.77200000000000002</v>
-      </c>
-      <c r="C174" t="s">
-        <v>3</v>
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="C174" s="3">
+        <v>0.77</v>
       </c>
       <c r="D174" s="3">
         <v>0.93400000000000005</v>
       </c>
-      <c r="E174" t="s">
-        <v>3</v>
+      <c r="E174" s="3">
+        <v>0.93300000000000005</v>
       </c>
       <c r="F174">
-        <v>703.7</v>
+        <v>698.8</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" t="s">
-        <v>111</v>
+        <v>176</v>
       </c>
       <c r="B175" s="3">
-        <v>0.77100000000000002</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="C175" t="s">
         <v>3</v>
       </c>
       <c r="D175" s="3">
-        <v>0.93300000000000005</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="E175" t="s">
         <v>3</v>
       </c>
       <c r="F175">
-        <v>664.7</v>
+        <v>703.7</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" t="s">
-        <v>182</v>
+        <v>111</v>
       </c>
       <c r="B176" s="3">
         <v>0.77100000000000002</v>
@@ -4546,15 +4545,15 @@
         <v>3</v>
       </c>
       <c r="F176">
-        <v>657</v>
+        <v>664.7</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="B177" s="3">
-        <v>0.77</v>
+        <v>0.77100000000000002</v>
       </c>
       <c r="C177" t="s">
         <v>3</v>
@@ -4566,32 +4565,32 @@
         <v>3</v>
       </c>
       <c r="F177">
-        <v>602.20000000000005</v>
+        <v>657</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B178" s="3">
-        <v>0.76900000000000002</v>
+        <v>0.77</v>
       </c>
       <c r="C178" t="s">
         <v>3</v>
       </c>
       <c r="D178" s="3">
-        <v>0.93400000000000005</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="E178" t="s">
         <v>3</v>
       </c>
       <c r="F178">
-        <v>704.4</v>
+        <v>602.20000000000005</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="B179" s="3">
         <v>0.76900000000000002</v>
@@ -4600,38 +4599,38 @@
         <v>3</v>
       </c>
       <c r="D179" s="3">
-        <v>0.93300000000000005</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="E179" t="s">
         <v>3</v>
       </c>
       <c r="F179">
-        <v>661.2</v>
+        <v>704.4</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B180" s="3">
-        <v>0.76800000000000002</v>
+        <v>0.76900000000000002</v>
       </c>
       <c r="C180" t="s">
         <v>3</v>
       </c>
       <c r="D180" s="3">
-        <v>0.93200000000000005</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="E180" t="s">
         <v>3</v>
       </c>
       <c r="F180">
-        <v>666.7</v>
+        <v>661.2</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="B181" s="3">
         <v>0.76800000000000002</v>
@@ -4640,18 +4639,18 @@
         <v>3</v>
       </c>
       <c r="D181" s="3">
-        <v>0.93400000000000005</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="E181" t="s">
         <v>3</v>
       </c>
       <c r="F181">
-        <v>484.3</v>
+        <v>666.7</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="B182" s="3">
         <v>0.76800000000000002</v>
@@ -4660,38 +4659,38 @@
         <v>3</v>
       </c>
       <c r="D182" s="3">
-        <v>0.93300000000000005</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="E182" t="s">
         <v>3</v>
       </c>
       <c r="F182">
-        <v>669.2</v>
+        <v>484.3</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="B183" s="3">
-        <v>0.76700000000000002</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="C183" t="s">
         <v>3</v>
       </c>
       <c r="D183" s="3">
-        <v>0.93200000000000005</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="E183" t="s">
         <v>3</v>
       </c>
       <c r="F183">
-        <v>676.3</v>
+        <v>669.2</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="B184" s="3">
         <v>0.76700000000000002</v>
@@ -4700,181 +4699,181 @@
         <v>3</v>
       </c>
       <c r="D184" s="3">
-        <v>0.93100000000000005</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="E184" t="s">
         <v>3</v>
       </c>
       <c r="F184">
-        <v>696.9</v>
+        <v>676.3</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" t="s">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="B185" s="3">
-        <v>0.76600000000000001</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="C185" t="s">
         <v>3</v>
       </c>
       <c r="D185" s="3">
-        <v>0.93200000000000005</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="E185" t="s">
         <v>3</v>
       </c>
       <c r="F185">
-        <v>571.79999999999995</v>
+        <v>696.9</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="B186" s="3">
-        <v>0.76300000000000001</v>
-      </c>
-      <c r="C186" s="3">
-        <v>0.76400000000000001</v>
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="C186" t="s">
+        <v>3</v>
       </c>
       <c r="D186" s="3">
-        <v>0.93</v>
-      </c>
-      <c r="E186" s="3">
-        <v>0.93100000000000005</v>
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="E186" t="s">
+        <v>3</v>
       </c>
       <c r="F186">
-        <v>605.5</v>
+        <v>571.79999999999995</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="B187" s="3">
         <v>0.76300000000000001</v>
       </c>
-      <c r="C187" t="s">
-        <v>3</v>
+      <c r="C187" s="3">
+        <v>0.76400000000000001</v>
       </c>
       <c r="D187" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="E187" s="3">
         <v>0.93100000000000005</v>
       </c>
-      <c r="E187" t="s">
-        <v>3</v>
-      </c>
       <c r="F187">
-        <v>713.3</v>
+        <v>605.5</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="B188" s="3">
-        <v>0.75800000000000001</v>
-      </c>
-      <c r="C188" s="3">
-        <v>0.752</v>
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="C188" t="s">
+        <v>3</v>
       </c>
       <c r="D188" s="3">
-        <v>0.92600000000000005</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="E188" t="s">
         <v>3</v>
       </c>
       <c r="F188">
-        <v>730.9</v>
+        <v>713.3</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B189" s="3">
-        <v>0.75700000000000001</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="C189" s="3">
-        <v>0.75800000000000001</v>
+        <v>0.752</v>
       </c>
       <c r="D189" s="3">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="E189" s="3">
-        <v>0.92800000000000005</v>
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E189" t="s">
+        <v>3</v>
       </c>
       <c r="F189">
-        <v>696.2</v>
+        <v>730.9</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" t="s">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="B190" s="3">
-        <v>0.75600000000000001</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="C190" s="3">
-        <v>0.76400000000000001</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="D190" s="3">
-        <v>0.92600000000000005</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="E190" s="3">
-        <v>0.93300000000000005</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="F190">
-        <v>601.79999999999995</v>
+        <v>696.2</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="B191" s="3">
-        <v>0.755</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="C191" s="3">
-        <v>0.752</v>
+        <v>0.76400000000000001</v>
       </c>
       <c r="D191" s="3">
         <v>0.92600000000000005</v>
       </c>
       <c r="E191" s="3">
-        <v>0.92500000000000004</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="F191">
-        <v>711.3</v>
+        <v>601.79999999999995</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" t="s">
-        <v>146</v>
+        <v>46</v>
       </c>
       <c r="B192" s="3">
         <v>0.755</v>
       </c>
-      <c r="C192" t="s">
-        <v>3</v>
+      <c r="C192" s="3">
+        <v>0.752</v>
       </c>
       <c r="D192" s="3">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E192" s="3">
         <v>0.92500000000000004</v>
       </c>
-      <c r="E192" t="s">
-        <v>3</v>
-      </c>
       <c r="F192">
-        <v>716.8</v>
+        <v>711.3</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="B193" s="3">
-        <v>0.753</v>
+        <v>0.755</v>
       </c>
       <c r="C193" t="s">
         <v>3</v>
@@ -4886,12 +4885,12 @@
         <v>3</v>
       </c>
       <c r="F193">
-        <v>725.9</v>
+        <v>716.8</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" t="s">
-        <v>161</v>
+        <v>70</v>
       </c>
       <c r="B194" s="3">
         <v>0.753</v>
@@ -4900,44 +4899,44 @@
         <v>3</v>
       </c>
       <c r="D194" s="3">
-        <v>0.92600000000000005</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="E194" t="s">
         <v>3</v>
       </c>
       <c r="F194">
-        <v>702.1</v>
+        <v>725.9</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="B195" s="3">
-        <v>0.751</v>
-      </c>
-      <c r="C195" s="3">
-        <v>0.749</v>
+        <v>0.753</v>
+      </c>
+      <c r="C195" t="s">
+        <v>3</v>
       </c>
       <c r="D195" s="3">
-        <v>0.92400000000000004</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="E195" t="s">
         <v>3</v>
       </c>
       <c r="F195">
-        <v>733.7</v>
+        <v>702.1</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" t="s">
-        <v>36</v>
+        <v>134</v>
       </c>
       <c r="B196" s="3">
         <v>0.751</v>
       </c>
-      <c r="C196" t="s">
-        <v>3</v>
+      <c r="C196" s="3">
+        <v>0.749</v>
       </c>
       <c r="D196" s="3">
         <v>0.92400000000000004</v>
@@ -4946,12 +4945,12 @@
         <v>3</v>
       </c>
       <c r="F196">
-        <v>649.4</v>
+        <v>733.7</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B197" s="3">
         <v>0.751</v>
@@ -4960,38 +4959,38 @@
         <v>3</v>
       </c>
       <c r="D197" s="3">
-        <v>0.92300000000000004</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="E197" t="s">
         <v>3</v>
       </c>
       <c r="F197">
-        <v>721.4</v>
+        <v>649.4</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="B198" s="3">
-        <v>0.748</v>
+        <v>0.751</v>
       </c>
       <c r="C198" t="s">
         <v>3</v>
       </c>
       <c r="D198" s="3">
-        <v>0.92200000000000004</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="E198" t="s">
         <v>3</v>
       </c>
       <c r="F198">
-        <v>698.2</v>
+        <v>721.4</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="B199" s="3">
         <v>0.748</v>
@@ -5000,21 +4999,21 @@
         <v>3</v>
       </c>
       <c r="D199" s="3">
-        <v>0.92100000000000004</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="E199" t="s">
         <v>3</v>
       </c>
       <c r="F199">
-        <v>721</v>
+        <v>698.2</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="B200" s="3">
-        <v>0.747</v>
+        <v>0.748</v>
       </c>
       <c r="C200" t="s">
         <v>3</v>
@@ -5026,15 +5025,15 @@
         <v>3</v>
       </c>
       <c r="F200">
-        <v>702.1</v>
+        <v>721</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B201" s="3">
-        <v>0.746</v>
+        <v>0.747</v>
       </c>
       <c r="C201" t="s">
         <v>3</v>
@@ -5046,12 +5045,12 @@
         <v>3</v>
       </c>
       <c r="F201">
-        <v>713.7</v>
+        <v>702.1</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="B202" s="3">
         <v>0.746</v>
@@ -5060,298 +5059,298 @@
         <v>3</v>
       </c>
       <c r="D202" s="3">
-        <v>0.92300000000000004</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="E202" t="s">
         <v>3</v>
       </c>
       <c r="F202">
-        <v>725.7</v>
+        <v>713.7</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="B203" s="3">
-        <v>0.74099999999999999</v>
-      </c>
-      <c r="C203" s="3">
-        <v>0.75</v>
+        <v>0.746</v>
+      </c>
+      <c r="C203" t="s">
+        <v>3</v>
       </c>
       <c r="D203" s="3">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="E203" s="3">
-        <v>0.92200000000000004</v>
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="E203" t="s">
+        <v>3</v>
       </c>
       <c r="F203">
-        <v>736.9</v>
+        <v>725.7</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" t="s">
-        <v>68</v>
+        <v>187</v>
       </c>
       <c r="B204" s="3">
-        <v>0.74</v>
-      </c>
-      <c r="C204" t="s">
-        <v>3</v>
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="C204" s="3">
+        <v>0.75</v>
       </c>
       <c r="D204" s="3">
         <v>0.91800000000000004</v>
       </c>
-      <c r="E204" t="s">
-        <v>3</v>
+      <c r="E204" s="3">
+        <v>0.92200000000000004</v>
       </c>
       <c r="F204">
-        <v>728.7</v>
+        <v>736.9</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B205" s="3">
-        <v>0.73799999999999999</v>
+        <v>0.74</v>
       </c>
       <c r="C205" t="s">
         <v>3</v>
       </c>
       <c r="D205" s="3">
-        <v>0.91700000000000004</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="E205" t="s">
         <v>3</v>
       </c>
       <c r="F205">
-        <v>698</v>
+        <v>728.7</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" t="s">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="B206" s="3">
-        <v>0.73399999999999999</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="C206" t="s">
         <v>3</v>
       </c>
       <c r="D206" s="3">
-        <v>0.91300000000000003</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="E206" t="s">
         <v>3</v>
       </c>
       <c r="F206">
-        <v>728.3</v>
+        <v>698</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="B207" s="3">
-        <v>0.73299999999999998</v>
+        <v>0.73399999999999999</v>
       </c>
       <c r="C207" t="s">
         <v>3</v>
       </c>
       <c r="D207" s="3">
-        <v>0.91400000000000003</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="E207" t="s">
         <v>3</v>
       </c>
       <c r="F207">
-        <v>701.6</v>
+        <v>728.3</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" t="s">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="B208" s="3">
-        <v>0.73</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="C208" t="s">
         <v>3</v>
       </c>
       <c r="D208" s="3">
-        <v>0.91200000000000003</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="E208" t="s">
         <v>3</v>
       </c>
       <c r="F208">
-        <v>708.6</v>
+        <v>701.6</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="B209" s="3">
-        <v>0.72399999999999998</v>
+        <v>0.73</v>
       </c>
       <c r="C209" t="s">
         <v>3</v>
       </c>
       <c r="D209" s="3">
-        <v>0.90800000000000003</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="E209" t="s">
         <v>3</v>
       </c>
       <c r="F209">
-        <v>721.1</v>
+        <v>708.6</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B210" s="3">
-        <v>0.72299999999999998</v>
+        <v>0.72399999999999998</v>
       </c>
       <c r="C210" t="s">
         <v>3</v>
       </c>
       <c r="D210" s="3">
-        <v>0.90700000000000003</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="E210" t="s">
         <v>3</v>
       </c>
       <c r="F210">
-        <v>733.3</v>
+        <v>721.1</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" t="s">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="B211" s="3">
-        <v>0.72199999999999998</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="C211" t="s">
         <v>3</v>
       </c>
       <c r="D211" s="3">
-        <v>0.90600000000000003</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="E211" t="s">
         <v>3</v>
       </c>
       <c r="F211">
-        <v>734</v>
+        <v>733.3</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="B212" s="3">
-        <v>0.71699999999999997</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="C212" t="s">
         <v>3</v>
       </c>
       <c r="D212" s="3">
-        <v>0.90300000000000002</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="E212" t="s">
         <v>3</v>
       </c>
       <c r="F212">
-        <v>721.5</v>
+        <v>734</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" t="s">
-        <v>160</v>
+        <v>92</v>
       </c>
       <c r="B213" s="3">
-        <v>0.70799999999999996</v>
+        <v>0.71699999999999997</v>
       </c>
       <c r="C213" t="s">
         <v>3</v>
       </c>
       <c r="D213" s="3">
-        <v>0.89100000000000001</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="E213" t="s">
         <v>3</v>
       </c>
       <c r="F213">
-        <v>728.7</v>
+        <v>721.5</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" t="s">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="B214" s="3">
-        <v>0.70299999999999996</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="C214" t="s">
         <v>3</v>
       </c>
       <c r="D214" s="3">
-        <v>0.89500000000000002</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="E214" t="s">
         <v>3</v>
       </c>
       <c r="F214">
-        <v>742.6</v>
+        <v>728.7</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B215" s="3">
-        <v>0.68799999999999994</v>
+        <v>0.70299999999999996</v>
       </c>
       <c r="C215" t="s">
         <v>3</v>
       </c>
       <c r="D215" s="3">
-        <v>0.88600000000000001</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="E215" t="s">
         <v>3</v>
       </c>
       <c r="F215">
-        <v>726.1</v>
+        <v>742.6</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B216" s="3">
-        <v>0.67900000000000005</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="C216" t="s">
         <v>3</v>
       </c>
       <c r="D216" s="3">
-        <v>0.88400000000000001</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="E216" t="s">
         <v>3</v>
       </c>
       <c r="F216">
-        <v>731.7</v>
+        <v>726.1</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="B217" s="3">
         <v>0.67900000000000005</v>
@@ -5360,298 +5359,313 @@
         <v>3</v>
       </c>
       <c r="D217" s="3">
-        <v>0.877</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="E217" t="s">
         <v>3</v>
       </c>
       <c r="F217">
-        <v>742.8</v>
+        <v>731.7</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="B218" s="3">
-        <v>0.66</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="C218" t="s">
         <v>3</v>
       </c>
       <c r="D218" s="3">
-        <v>0.87</v>
+        <v>0.877</v>
       </c>
       <c r="E218" t="s">
         <v>3</v>
       </c>
       <c r="F218">
-        <v>727.3</v>
+        <v>742.8</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" t="s">
-        <v>142</v>
+        <v>15</v>
       </c>
       <c r="B219" s="3">
-        <v>0.65700000000000003</v>
+        <v>0.66</v>
       </c>
       <c r="C219" t="s">
         <v>3</v>
       </c>
       <c r="D219" s="3">
-        <v>0.86099999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="E219" t="s">
         <v>3</v>
       </c>
       <c r="F219">
-        <v>739.5</v>
+        <v>727.3</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="B220" s="3">
-        <v>0.64900000000000002</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="C220" t="s">
         <v>3</v>
       </c>
       <c r="D220" s="3">
-        <v>0.86299999999999999</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="E220" t="s">
         <v>3</v>
       </c>
       <c r="F220">
-        <v>736.1</v>
+        <v>739.5</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="B221" s="3">
-        <v>0.629</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="C221" t="s">
         <v>3</v>
       </c>
       <c r="D221" s="3">
-        <v>0.84199999999999997</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="E221" t="s">
         <v>3</v>
       </c>
       <c r="F221">
-        <v>737.8</v>
+        <v>736.1</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" t="s">
-        <v>19</v>
+        <v>144</v>
+      </c>
+      <c r="B222" s="3">
+        <v>0.629</v>
+      </c>
+      <c r="C222" t="s">
+        <v>3</v>
+      </c>
+      <c r="D222" s="3">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="E222" t="s">
+        <v>3</v>
+      </c>
+      <c r="F222">
+        <v>737.8</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="263" spans="1:1">
@@ -5661,7 +5675,7 @@
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
     </row>
     <row r="265" spans="1:1">
@@ -5709,15 +5723,21 @@
         <v>83</v>
       </c>
     </row>
+    <row r="274" spans="1:1">
+      <c r="A274" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:N3" xr:uid="{0847DEFE-6F30-4047-B753-A51AD7AD3B12}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F273">
-      <sortCondition descending="1" ref="B3"/>
+  <autoFilter ref="A4:N4" xr:uid="{0847DEFE-6F30-4047-B753-A51AD7AD3B12}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:F274">
+      <sortCondition descending="1" ref="B4"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="3"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{0088B447-4BE0-40AA-B10E-AEAE5882BBB9}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{0088B447-4BE0-40AA-B10E-AEAE5882BBB9}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{8A3E882D-E90F-4F4B-8D8A-5C7090101097}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
